--- a/CI_PLATFORM_SCHEMA.xlsx
+++ b/CI_PLATFORM_SCHEMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TRN_TATVASOFT\Assignment\CI_PLATFORM_SCHEMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TRN_TATVASOFT\Assignment\CI_PLATFORM\CI_PLATFORM_ASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="127">
   <si>
     <t>Field</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>YEs</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -393,13 +390,28 @@
   </si>
   <si>
     <t>rating</t>
+  </si>
+  <si>
+    <t>Table: banner_img</t>
+  </si>
+  <si>
+    <t>banner_img_id</t>
+  </si>
+  <si>
+    <t>deleteed_at</t>
+  </si>
+  <si>
+    <t>UNSIGN</t>
+  </si>
+  <si>
+    <t>FK(story_application.story_app_id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +459,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,13 +519,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,28 +812,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O200"/>
+  <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -791,60 +845,57 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -901,7 +952,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -941,7 +992,7 @@
         <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -959,7 +1010,7 @@
         <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1003,70 +1054,67 @@
       <c r="H11" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="A13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="D15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1087,29 +1135,29 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1119,13 +1167,15 @@
       <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1137,13 +1187,13 @@
         <v>87</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1161,7 +1211,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1179,9 +1229,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1190,63 +1240,60 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="D25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1260,13 +1307,13 @@
         <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1280,13 +1327,13 @@
         <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -1298,13 +1345,13 @@
         <v>87</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1369,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1340,9 +1387,9 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1351,64 +1398,63 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="6">
         <v>20</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="D34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1422,60 +1468,64 @@
         <v>87</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="6">
         <v>20</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="D36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="6">
         <v>20</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>109</v>
+      <c r="D37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1489,14 +1539,14 @@
         <v>87</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1508,14 +1558,14 @@
         <v>87</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
@@ -1532,9 +1582,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -1551,11 +1600,10 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="43" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1564,61 +1612,60 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>20</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="D45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>25</v>
       </c>
@@ -1632,10 +1679,10 @@
         <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>35</v>
       </c>
@@ -1649,10 +1696,10 @@
         <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1663,7 +1710,7 @@
         <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -1693,10 +1740,18 @@
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1705,10 +1760,10 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
@@ -1735,31 +1790,35 @@
       <c r="H53" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="6">
         <v>20</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="D54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1831,7 +1890,7 @@
         <v>87</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1856,7 +1915,7 @@
         <v>87</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1881,7 +1940,7 @@
         <v>87</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1991,27 +2050,27 @@
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="6">
         <v>20</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>110</v>
+      <c r="D64" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2020,27 +2079,27 @@
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="6">
         <v>20</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>109</v>
+      <c r="D65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -2135,14 +2194,11 @@
         <v>87</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
@@ -2158,14 +2214,11 @@
         <v>87</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
@@ -2186,10 +2239,6 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -2209,15 +2258,11 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
     <row r="74" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2226,10 +2271,6 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
@@ -2258,29 +2299,29 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="6">
         <v>20</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="D76" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -2317,7 +2358,7 @@
         <v>87</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2361,7 +2402,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>35</v>
       </c>
@@ -2375,13 +2416,13 @@
         <v>87</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
@@ -2393,15 +2434,15 @@
         <v>87</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="84" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2410,12 +2451,8 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>0</v>
       </c>
@@ -2441,33 +2478,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="6">
         <v>20</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="D86" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>43</v>
       </c>
@@ -2483,7 +2520,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>44</v>
       </c>
@@ -2497,47 +2534,47 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="6">
         <v>20</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="6">
+        <v>20</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="1">
-        <v>20</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>45</v>
       </c>
@@ -2553,7 +2590,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>46</v>
       </c>
@@ -2567,7 +2604,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>47</v>
       </c>
@@ -2581,7 +2618,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>48</v>
       </c>
@@ -2595,7 +2632,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>49</v>
       </c>
@@ -2611,7 +2648,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>50</v>
       </c>
@@ -2640,43 +2677,43 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="6">
         <v>20</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>111</v>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="6">
         <v>20</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>113</v>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -2741,13 +2778,13 @@
         <v>87</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>14</v>
       </c>
@@ -2759,11 +2796,12 @@
         <v>87</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
+      <c r="L105" s="3"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -2813,7 +2851,7 @@
     </row>
     <row r="109" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2822,10 +2860,6 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -2855,29 +2889,29 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="6">
         <v>20</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="D111" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -2896,7 +2930,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>58</v>
       </c>
@@ -2910,7 +2944,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>59</v>
       </c>
@@ -2924,7 +2958,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>35</v>
       </c>
@@ -2938,13 +2972,13 @@
         <v>87</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>14</v>
       </c>
@@ -2956,13 +2990,13 @@
         <v>87</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>15</v>
       </c>
@@ -2980,7 +3014,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -2998,7 +3032,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3008,9 +3042,9 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3019,13 +3053,8 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>0</v>
       </c>
@@ -3051,57 +3080,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="6">
         <v>20</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="D122" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="6">
         <v>20</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D123" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>42</v>
       </c>
@@ -3115,37 +3144,37 @@
         <v>87</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="6">
         <v>20</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D125" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>61</v>
       </c>
@@ -3159,15 +3188,15 @@
         <v>87</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>76</v>
@@ -3185,7 +3214,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>35</v>
       </c>
@@ -3199,13 +3228,13 @@
         <v>87</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>14</v>
       </c>
@@ -3217,13 +3246,13 @@
         <v>87</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>15</v>
       </c>
@@ -3241,7 +3270,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>16</v>
       </c>
@@ -3259,9 +3288,9 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="133" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3270,13 +3299,8 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>0</v>
       </c>
@@ -3302,107 +3326,117 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="6">
         <v>20</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="D135" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G135" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="H135" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="6">
         <v>20</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="D136" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C137" s="6">
+        <v>20</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C138" s="1">
         <v>255</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B139" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3414,65 +3448,61 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C142" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D142" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>78</v>
@@ -3488,142 +3518,142 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="146" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A146" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+    </row>
+    <row r="147" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A147" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="4" t="s">
+      <c r="D148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F148" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G148" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H147" s="4" t="s">
+      <c r="H148" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C149" s="6">
         <v>20</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F148" s="1" t="s">
+      <c r="D149" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H149" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B150" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C150" s="6">
         <v>20</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="D150" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C150" s="1">
-        <v>255</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C151" s="1"/>
+      <c r="C151" s="1">
+        <v>255</v>
+      </c>
       <c r="D151" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="1">
+        <v>255</v>
+      </c>
       <c r="D152" s="1" t="s">
         <v>88</v>
       </c>
@@ -3634,9 +3664,9 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3650,68 +3680,66 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C155" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D155" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
@@ -3724,153 +3752,149 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="159" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A159" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+    </row>
+    <row r="160" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A160" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F161" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G161" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H160" s="4" t="s">
+      <c r="H161" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B162" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C162" s="6">
         <v>20</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F161" s="1" t="s">
+      <c r="D162" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="H162" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C163" s="1">
         <v>255</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D163" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C164" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D164" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>78</v>
@@ -3886,207 +3910,203 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="168" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A168" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="169" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A169" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" s="1" t="s">
+      <c r="D170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B171" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C171" s="6">
         <v>20</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F170" s="1" t="s">
+      <c r="D171" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="H171" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B172" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C172" s="6">
         <v>20</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="D172" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C176" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D176" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>78</v>
@@ -4102,213 +4122,209 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="180" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A180" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="181" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A181" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B182" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C182" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E181" s="4" t="s">
+      <c r="D182" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="F182" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G181" s="4" t="s">
+      <c r="G182" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H181" s="4" t="s">
+      <c r="H182" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B183" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C183" s="6">
         <v>20</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F182" s="1" t="s">
+      <c r="D183" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G183" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="H183" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C184" s="6">
         <v>20</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="D184" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C185" s="1">
         <v>20</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C188" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D188" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>78</v>
@@ -4324,193 +4340,392 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="192" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A192" s="3" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+    </row>
+    <row r="193" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A193" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+      <c r="B195" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C195" s="6">
+        <v>20</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H195" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C196" s="6">
+        <v>20</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H196" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C197" s="6">
+        <v>20</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+    </row>
+    <row r="203" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A203" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B204" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C204" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" s="2" t="s">
+      <c r="D204" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F193" s="2" t="s">
+      <c r="F204" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G193" s="2" t="s">
+      <c r="G204" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H193" s="2" t="s">
+      <c r="H204" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B194" s="2" t="s">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C205" s="6">
         <v>20</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E194" s="2" t="s">
+      <c r="D205" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C206" s="1">
+        <v>50</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C207" s="1">
+        <v>255</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E209" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C195" s="2">
-        <v>20</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C196" s="2">
-        <v>20</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B198" s="2" t="s">
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B199" s="2" t="s">
+      <c r="C210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A109:M109"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A74:L74"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A192:H192"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A180:L180"/>
-    <mergeCell ref="A168:L168"/>
-    <mergeCell ref="A159:L159"/>
-    <mergeCell ref="A146:L146"/>
-    <mergeCell ref="A133:M133"/>
-    <mergeCell ref="A120:M120"/>
+  <mergeCells count="2">
+    <mergeCell ref="A203:H203"/>
+    <mergeCell ref="A193:H193"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
